--- a/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
+++ b/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>（今までに登録した体重履歴を見る）※カロリーのところ</t>
+  </si>
+  <si>
+    <t>【スマホ版イメージ】</t>
   </si>
   <si>
     <t>（上記でカレンダー表示時）</t>
@@ -671,40 +674,63 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10687050" cy="5067300"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10668002" cy="5047700"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10668002" cy="5047700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10668002" cy="5047700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>-190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6886575" cy="5105400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image6.png" title="画像"/>
@@ -729,17 +755,45 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>-9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5486400" cy="4800600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>-38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5486400" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,11 +817,11 @@
     <xdr:ext cx="2143125" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -789,34 +843,6 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2143125" cy="190500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image2.png" title="画像"/>
@@ -841,17 +867,45 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>-9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5486400" cy="4800600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5410200" cy="4724400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2314,7 +2368,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -2479,8 +2533,10 @@
       <c r="F5" s="24"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -3172,12 +3228,12 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3875,7 +3931,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4633,7 +4689,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -4770,7 +4826,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -4800,13 +4856,13 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -4946,7 +5002,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -4976,10 +5032,10 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="6"/>
@@ -5176,14 +5232,14 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
@@ -5208,14 +5264,14 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -5240,30 +5296,30 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K103" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -5340,14 +5396,14 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="24"/>
       <c r="B106" s="50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H106" s="50"/>
       <c r="I106" s="50"/>
@@ -5372,30 +5428,30 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="51"/>
       <c r="G107" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I107" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J107" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K107" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
@@ -5556,30 +5612,30 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="51"/>
       <c r="G113" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I113" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J113" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K113" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
@@ -5656,14 +5712,14 @@
     <row r="116" ht="21.0" customHeight="1">
       <c r="A116" s="24"/>
       <c r="B116" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C116" s="50"/>
       <c r="D116" s="50"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116" s="50"/>
       <c r="I116" s="50"/>
@@ -5688,30 +5744,30 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="51"/>
       <c r="B117" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="51"/>
       <c r="G117" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I117" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J117" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K117" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
@@ -31643,7 +31699,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -31671,10 +31727,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>

--- a/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
+++ b/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>【スマホ版イメージ】</t>
+  </si>
+  <si>
+    <t>※日程を選ぶと入力可能になる。</t>
   </si>
   <si>
     <t>（上記でカレンダー表示時）</t>
@@ -433,11 +436,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -676,10 +679,10 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10687050" cy="5067300"/>
+    <xdr:ext cx="9963150" cy="4724400"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -688,9 +691,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10668002" cy="5047700"/>
+          <a:ext cx="7315203" cy="3474637"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10668002" cy="5047700"/>
+          <a:chExt cx="7315203" cy="3474637"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -709,7 +712,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10668002" cy="5047700"/>
+            <a:ext cx="7315203" cy="3474637"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -733,7 +736,7 @@
     <xdr:ext cx="6886575" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -789,7 +792,7 @@
     <xdr:ext cx="5486400" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -817,7 +820,7 @@
     <xdr:ext cx="2143125" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -845,7 +848,7 @@
     <xdr:ext cx="2143125" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -873,7 +876,7 @@
     <xdr:ext cx="5486400" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -901,7 +904,7 @@
     <xdr:ext cx="5410200" cy="4724400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2368,7 +2371,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -3207,7 +3210,9 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3228,12 +3233,12 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3790,7 +3795,7 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="27"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -3930,8 +3935,8 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="28" t="s">
-        <v>19</v>
+      <c r="B55" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4689,7 +4694,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -4826,7 +4831,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -4856,13 +4861,13 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -5002,7 +5007,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -5032,10 +5037,10 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="6"/>
@@ -5232,14 +5237,14 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
@@ -5264,14 +5269,14 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -5296,30 +5301,30 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K103" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -5396,14 +5401,14 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="24"/>
       <c r="B106" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106" s="50"/>
       <c r="I106" s="50"/>
@@ -5428,30 +5433,30 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="51"/>
       <c r="G107" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I107" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J107" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K107" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
@@ -5612,30 +5617,30 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="51"/>
       <c r="G113" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I113" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J113" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K113" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
@@ -5712,14 +5717,14 @@
     <row r="116" ht="21.0" customHeight="1">
       <c r="A116" s="24"/>
       <c r="B116" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C116" s="50"/>
       <c r="D116" s="50"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116" s="50"/>
       <c r="I116" s="50"/>
@@ -5744,30 +5749,30 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="51"/>
       <c r="B117" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="51"/>
       <c r="G117" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I117" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J117" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K117" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
@@ -31699,7 +31704,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -31727,10 +31732,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>
@@ -31826,211 +31831,211 @@
       <c r="U8" s="65"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="65"/>

--- a/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
+++ b/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="6Oa7GrAAovpBme/dZLhgDB68A9nmTB4qzKUOTOFD4fI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="1YONul67M073npmIfioHM3EFa7W6l+n16JaIr7m/vWM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>ユーザ管理画面(トップ)のタブ「体重管理」を切り替えることで表示される。
+ログインユーザに紐づく、体重登録と体重履歴を表示すること。
+体重を登録時に、カレンダーを選択し、体重を登録できること、
+体重履歴を参照時に、カレンダーを選択し、体重を参照すること。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -442,8 +448,8 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -575,108 +581,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1228725" cy="342900"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="1714500" cy="571500"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="1714500" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="1714500" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1276350" cy="428625"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="1714500" cy="571500"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="1714500" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="1714500" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -698,11 +602,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId2">
+          <a:blip r:embed="rId1">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -728,6 +632,108 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12363450" cy="4914900"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315197" cy="2892411"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315197" cy="2892411"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315197" cy="2892411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12363450" cy="4914900"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315202" cy="2895915"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315202" cy="2895915"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315202" cy="2895915"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>56</xdr:row>
@@ -736,179 +742,11 @@
     <xdr:ext cx="6886575" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4800600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>-38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4800600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2143125" cy="190500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2143125" cy="190500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4800600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5410200" cy="4724400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2371,7 +2209,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -4723,7 +4561,9 @@
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4774,13 +4614,8 @@
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
+      <c r="B85" s="30"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -4802,13 +4637,13 @@
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -4830,9 +4665,7 @@
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -4860,15 +4693,11 @@
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4894,9 +4723,15 @@
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
+      <c r="B89" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>26</v>
+      </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -4922,9 +4757,9 @@
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="35"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="34"/>
-      <c r="D90" s="36"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -4950,8 +4785,8 @@
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="36"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -4978,9 +4813,9 @@
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5006,11 +4841,9 @@
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -5036,13 +4869,11 @@
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="20"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -5066,10 +4897,14 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" ht="33.75" customHeight="1">
+    <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="D95" s="20"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -5094,11 +4929,11 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" ht="62.25" customHeight="1">
+    <row r="96" ht="33.75" customHeight="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5122,11 +4957,11 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" ht="33.75" customHeight="1">
+    <row r="97" ht="62.25" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="42"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="20"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -5152,9 +4987,9 @@
     </row>
     <row r="98" ht="33.75" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -5180,8 +5015,8 @@
     </row>
     <row r="99" ht="33.75" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="43"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="9"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -5206,11 +5041,11 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" ht="16.5" customHeight="1">
+    <row r="100" ht="33.75" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -5236,16 +5071,12 @@
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -5269,7 +5100,7 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -5300,32 +5131,20 @@
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="32" t="s">
-        <v>35</v>
+      <c r="G103" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="H103" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I103" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J103" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K103" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
@@ -5342,18 +5161,34 @@
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" ht="109.5" customHeight="1">
+    <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="48"/>
+      <c r="B104" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="49"/>
-      <c r="K104" s="49"/>
+      <c r="G104" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K104" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -5370,18 +5205,18 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" ht="16.5" customHeight="1">
+    <row r="105" ht="109.5" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
@@ -5399,65 +5234,49 @@
       <c r="Z105" s="6"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="24"/>
-      <c r="B106" s="50" t="s">
-        <v>37</v>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c r="A107" s="24"/>
+      <c r="B107" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="50" t="s">
-        <v>37</v>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="24"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-      <c r="W106" s="24"/>
-      <c r="X106" s="24"/>
-      <c r="Y106" s="24"/>
-      <c r="Z106" s="24"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="51"/>
-      <c r="B107" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K107" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
       <c r="N107" s="24"/>
@@ -5476,16 +5295,32 @@
     </row>
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="51"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
+      <c r="B108" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="E108" s="24"/>
       <c r="F108" s="51"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
-      <c r="K108" s="55"/>
+      <c r="G108" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
@@ -5502,18 +5337,18 @@
       <c r="Y108" s="24"/>
       <c r="Z108" s="24"/>
     </row>
-    <row r="109" ht="27.75" customHeight="1">
+    <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="51"/>
-      <c r="B109" s="56"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="54"/>
       <c r="D109" s="54"/>
       <c r="E109" s="24"/>
       <c r="F109" s="51"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="24"/>
@@ -5530,18 +5365,18 @@
       <c r="Y109" s="24"/>
       <c r="Z109" s="24"/>
     </row>
-    <row r="110" ht="16.5" customHeight="1">
+    <row r="110" ht="27.75" customHeight="1">
       <c r="A110" s="51"/>
-      <c r="B110" s="53"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="54"/>
       <c r="D110" s="54"/>
       <c r="E110" s="24"/>
       <c r="F110" s="51"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="55"/>
-      <c r="K110" s="55"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="54"/>
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
       <c r="N110" s="24"/>
@@ -5558,18 +5393,18 @@
       <c r="Y110" s="24"/>
       <c r="Z110" s="24"/>
     </row>
-    <row r="111" ht="24.0" customHeight="1">
+    <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="51"/>
-      <c r="B111" s="56"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="54"/>
-      <c r="D111" s="36"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="24"/>
       <c r="F111" s="51"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
       <c r="N111" s="24"/>
@@ -5586,18 +5421,18 @@
       <c r="Y111" s="24"/>
       <c r="Z111" s="24"/>
     </row>
-    <row r="112" ht="36.75" customHeight="1">
-      <c r="A112" s="24"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
+    <row r="112" ht="24.0" customHeight="1">
+      <c r="A112" s="51"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24"/>
@@ -5614,34 +5449,18 @@
       <c r="Y112" s="24"/>
       <c r="Z112" s="24"/>
     </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="51"/>
-      <c r="B113" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="52" t="s">
-        <v>34</v>
-      </c>
+    <row r="113" ht="36.75" customHeight="1">
+      <c r="A113" s="24"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I113" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J113" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K113" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="F113" s="24"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="50"/>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
       <c r="N113" s="24"/>
@@ -5658,18 +5477,34 @@
       <c r="Y113" s="24"/>
       <c r="Z113" s="24"/>
     </row>
-    <row r="114" ht="35.25" customHeight="1">
+    <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="51"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="57"/>
+      <c r="B114" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="E114" s="24"/>
       <c r="F114" s="51"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="55"/>
+      <c r="G114" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
       <c r="N114" s="24"/>
@@ -5686,18 +5521,18 @@
       <c r="Y114" s="24"/>
       <c r="Z114" s="24"/>
     </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+    <row r="115" ht="35.25" customHeight="1">
+      <c r="A115" s="51"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
       <c r="N115" s="24"/>
@@ -5714,22 +5549,18 @@
       <c r="Y115" s="24"/>
       <c r="Z115" s="24"/>
     </row>
-    <row r="116" ht="21.0" customHeight="1">
+    <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="24"/>
-      <c r="B116" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
-      <c r="G116" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
       <c r="N116" s="24"/>
@@ -5746,34 +5577,22 @@
       <c r="Y116" s="24"/>
       <c r="Z116" s="24"/>
     </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="51"/>
-      <c r="B117" s="52" t="s">
-        <v>32</v>
+    <row r="117" ht="21.0" customHeight="1">
+      <c r="A117" s="24"/>
+      <c r="B117" s="50" t="s">
+        <v>39</v>
       </c>
-      <c r="C117" s="52" t="s">
-        <v>33</v>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="D117" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I117" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J117" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K117" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="50"/>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
       <c r="N117" s="24"/>
@@ -5790,18 +5609,34 @@
       <c r="Y117" s="24"/>
       <c r="Z117" s="24"/>
     </row>
-    <row r="118" ht="48.75" customHeight="1">
+    <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="51"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="57"/>
+      <c r="B118" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="E118" s="24"/>
       <c r="F118" s="51"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="55"/>
+      <c r="G118" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
       <c r="N118" s="24"/>
@@ -5818,11 +5653,11 @@
       <c r="Y118" s="24"/>
       <c r="Z118" s="24"/>
     </row>
-    <row r="119" ht="18.75" customHeight="1">
+    <row r="119" ht="48.75" customHeight="1">
       <c r="A119" s="51"/>
-      <c r="B119" s="53"/>
+      <c r="B119" s="40"/>
       <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="24"/>
       <c r="F119" s="51"/>
       <c r="G119" s="55"/>
@@ -5846,18 +5681,18 @@
       <c r="Y119" s="24"/>
       <c r="Z119" s="24"/>
     </row>
-    <row r="120" ht="26.25" customHeight="1">
+    <row r="120" ht="18.75" customHeight="1">
       <c r="A120" s="51"/>
-      <c r="B120" s="54"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="54"/>
-      <c r="D120" s="57"/>
+      <c r="D120" s="54"/>
       <c r="E120" s="24"/>
       <c r="F120" s="51"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24"/>
@@ -5874,18 +5709,18 @@
       <c r="Y120" s="24"/>
       <c r="Z120" s="24"/>
     </row>
-    <row r="121" ht="19.5" customHeight="1">
+    <row r="121" ht="26.25" customHeight="1">
       <c r="A121" s="51"/>
-      <c r="B121" s="53"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
+      <c r="D121" s="57"/>
       <c r="E121" s="24"/>
       <c r="F121" s="51"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
       <c r="N121" s="24"/>
@@ -5902,18 +5737,18 @@
       <c r="Y121" s="24"/>
       <c r="Z121" s="24"/>
     </row>
-    <row r="122" ht="32.25" customHeight="1">
+    <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="51"/>
-      <c r="B122" s="54"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="54"/>
-      <c r="D122" s="57"/>
+      <c r="D122" s="54"/>
       <c r="E122" s="24"/>
       <c r="F122" s="51"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
       <c r="L122" s="24"/>
       <c r="M122" s="24"/>
       <c r="N122" s="24"/>
@@ -5930,18 +5765,18 @@
       <c r="Y122" s="24"/>
       <c r="Z122" s="24"/>
     </row>
-    <row r="123" ht="21.75" customHeight="1">
+    <row r="123" ht="32.25" customHeight="1">
       <c r="A123" s="51"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="59"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="24"/>
       <c r="F123" s="51"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="55"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
       <c r="N123" s="24"/>
@@ -5958,18 +5793,18 @@
       <c r="Y123" s="24"/>
       <c r="Z123" s="24"/>
     </row>
-    <row r="124" ht="35.25" customHeight="1">
+    <row r="124" ht="21.75" customHeight="1">
       <c r="A124" s="51"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="60"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="59"/>
       <c r="E124" s="24"/>
       <c r="F124" s="51"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24"/>
@@ -5986,18 +5821,18 @@
       <c r="Y124" s="24"/>
       <c r="Z124" s="24"/>
     </row>
-    <row r="125" ht="21.75" customHeight="1">
+    <row r="125" ht="35.25" customHeight="1">
       <c r="A125" s="51"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="60"/>
       <c r="E125" s="24"/>
       <c r="F125" s="51"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="55"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
       <c r="L125" s="24"/>
       <c r="M125" s="24"/>
       <c r="N125" s="24"/>
@@ -6014,18 +5849,18 @@
       <c r="Y125" s="24"/>
       <c r="Z125" s="24"/>
     </row>
-    <row r="126" ht="27.75" customHeight="1">
+    <row r="126" ht="21.75" customHeight="1">
       <c r="A126" s="51"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="57"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
       <c r="E126" s="24"/>
       <c r="F126" s="51"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
       <c r="L126" s="24"/>
       <c r="M126" s="24"/>
       <c r="N126" s="24"/>
@@ -6042,18 +5877,18 @@
       <c r="Y126" s="24"/>
       <c r="Z126" s="24"/>
     </row>
-    <row r="127" ht="21.75" customHeight="1">
+    <row r="127" ht="27.75" customHeight="1">
       <c r="A127" s="51"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="59"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="24"/>
       <c r="F127" s="51"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="55"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
       <c r="N127" s="24"/>
@@ -6070,18 +5905,18 @@
       <c r="Y127" s="24"/>
       <c r="Z127" s="24"/>
     </row>
-    <row r="128" ht="27.75" customHeight="1">
+    <row r="128" ht="21.75" customHeight="1">
       <c r="A128" s="51"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="63"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="24"/>
       <c r="F128" s="51"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
       <c r="N128" s="24"/>
@@ -6098,33 +5933,33 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
-      <c r="Y129" s="6"/>
-      <c r="Z129" s="6"/>
+    <row r="129" ht="27.75" customHeight="1">
+      <c r="A129" s="51"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="24"/>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="6"/>
@@ -31578,17 +31413,45 @@
       <c r="Y1038" s="6"/>
       <c r="Z1038" s="6"/>
     </row>
+    <row r="1039" ht="16.5" customHeight="1">
+      <c r="A1039" s="6"/>
+      <c r="B1039" s="6"/>
+      <c r="C1039" s="6"/>
+      <c r="D1039" s="6"/>
+      <c r="E1039" s="6"/>
+      <c r="F1039" s="6"/>
+      <c r="G1039" s="6"/>
+      <c r="H1039" s="6"/>
+      <c r="I1039" s="6"/>
+      <c r="J1039" s="6"/>
+      <c r="K1039" s="6"/>
+      <c r="L1039" s="6"/>
+      <c r="M1039" s="6"/>
+      <c r="N1039" s="6"/>
+      <c r="O1039" s="6"/>
+      <c r="P1039" s="6"/>
+      <c r="Q1039" s="6"/>
+      <c r="R1039" s="6"/>
+      <c r="S1039" s="6"/>
+      <c r="T1039" s="6"/>
+      <c r="U1039" s="6"/>
+      <c r="V1039" s="6"/>
+      <c r="W1039" s="6"/>
+      <c r="X1039" s="6"/>
+      <c r="Y1039" s="6"/>
+      <c r="Z1039" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B83:H85"/>
-    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="B83:H86"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31704,7 +31567,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -31732,10 +31595,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>

--- a/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
+++ b/画面設計/【画面設計】13_ユーザ管理画面(体重管理画面).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>（上記でカレンダー表示時）</t>
+  </si>
+  <si>
+    <t>3年制約</t>
   </si>
   <si>
     <t>（今までに登録した体重を見る）※カレンダーベースで表示（ヘッダーと戻るボタンなどは表示する）カロリーじゃなくてKg</t>
@@ -3082,7 +3085,9 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3774,7 +3779,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4532,7 +4537,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -4562,7 +4567,7 @@
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4694,7 +4699,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -4724,13 +4729,13 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4870,7 +4875,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -4900,10 +4905,10 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="6"/>
@@ -5100,14 +5105,14 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -5132,14 +5137,14 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
@@ -5164,30 +5169,30 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K104" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -5264,14 +5269,14 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="24"/>
       <c r="B107" s="50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C107" s="50"/>
       <c r="D107" s="50"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
       <c r="G107" s="50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H107" s="50"/>
       <c r="I107" s="50"/>
@@ -5296,30 +5301,30 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="51"/>
       <c r="G108" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H108" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I108" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J108" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K108" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
@@ -5480,30 +5485,30 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="51"/>
       <c r="B114" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="51"/>
       <c r="G114" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H114" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I114" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J114" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K114" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
@@ -5580,14 +5585,14 @@
     <row r="117" ht="21.0" customHeight="1">
       <c r="A117" s="24"/>
       <c r="B117" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C117" s="50"/>
       <c r="D117" s="50"/>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
       <c r="G117" s="50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H117" s="50"/>
       <c r="I117" s="50"/>
@@ -5612,30 +5617,30 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="51"/>
       <c r="B118" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="51"/>
       <c r="G118" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I118" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J118" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K118" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
@@ -31447,11 +31452,11 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="B83:H86"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="B83:H86"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31567,7 +31572,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -31595,10 +31600,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>
